--- a/data/cargas/master data/classeCusto.xlsx
+++ b/data/cargas/master data/classeCusto.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a-react\a - meus projetos\cydagReact\data\cargas\master data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\tmp\cydag v0.7.7\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197787A7-1824-4D5D-87C8-26AD30AF5C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8936C11B-0D0C-45D2-A065-41BF6E3A1DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="classeCusto" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">classeCusto!$A$1:$E$80</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -453,7 +456,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -636,6 +639,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -800,9 +809,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1162,7 +1173,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1201,7 +1212,7 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E2">
@@ -1218,8 +1229,8 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
+      <c r="D3" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1235,7 +1246,7 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E4">
@@ -1269,7 +1280,7 @@
       <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E6">
@@ -1694,8 +1705,8 @@
       <c r="C31" t="s">
         <v>7</v>
       </c>
-      <c r="D31" t="s">
-        <v>40</v>
+      <c r="D31" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="E31">
         <v>24</v>
@@ -1830,8 +1841,8 @@
       <c r="C39" t="s">
         <v>42</v>
       </c>
-      <c r="D39" t="s">
-        <v>40</v>
+      <c r="D39" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="E39">
         <v>32</v>
@@ -1881,8 +1892,8 @@
       <c r="C42" t="s">
         <v>53</v>
       </c>
-      <c r="D42" t="s">
-        <v>40</v>
+      <c r="D42" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="E42">
         <v>35</v>
@@ -2170,8 +2181,8 @@
       <c r="C59" t="s">
         <v>11</v>
       </c>
-      <c r="D59" t="s">
-        <v>40</v>
+      <c r="D59" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="E59">
         <v>51</v>
@@ -2535,6 +2546,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E80" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>